--- a/web/PirateCardsLayaGame/design/Config/Common/ItemDecorate.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemDecorate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD1B4B-2930-4A86-AF24-778A931043B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4925498-E6F0-4D2A-964E-EC9C851FF5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>int</t>
   </si>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_cn_itemDes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -137,16 +133,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击杀小怪，结算金币*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生命转化</t>
   </si>
   <si>
-    <t>获得十次血瓶，获得一次攻击力为N=5闪电</t>
-  </si>
-  <si>
     <t>盗贼之力</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -171,34 +160,14 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>下次解锁箱子直接开启。该饰品道具消失。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次吃的盾牌护盾值+2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀10次怪物可以免役一次结算伤害。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>免疫毒性攻击</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>进行20回合无敌一回合，回合结束，无论使用与否，无敌消失。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>免疫远程伤害</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>float[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>效果参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,77 +180,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>TiggerLightning</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoUnlockChest</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddArmor</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmunePoison</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmuneFar</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerArgs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EatCardEnemy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EatCardHealth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EatCardChest</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EatCardArmor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃10个血瓶释放闪电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接开箱子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到盾牌+2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀10个怪物免疫伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走20回合无敌一回合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>GoldMultiplier</t>
-  </si>
-  <si>
-    <t>TiggerLightning</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoUnlockChest</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddArmor</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImmunePoison</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImmuneFar</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerArgs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EatCardEnemy</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EatCardHealth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EatCardChest</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EatCardArmor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessorie_00008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_cn_des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +382,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -375,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -436,19 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -476,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -507,55 +543,50 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,7 +1046,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1023,11 +1054,11 @@
     <col min="1" max="1" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="29.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" style="12" customWidth="1"/>
@@ -1038,288 +1069,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3</v>
+      </c>
+      <c r="G4" s="25">
+        <v>3</v>
+      </c>
+      <c r="H4" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>1301</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>1302</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="28">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>1303</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>1304</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>1305</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>1306</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>1307</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="H11" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="27">
+        <v>1308</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28">
-        <v>3</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28">
-        <v>3</v>
-      </c>
-      <c r="E4" s="28">
-        <v>3</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28">
-        <v>3</v>
-      </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>1301</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="32">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>1302</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="32">
-        <v>5</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>1303</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="32">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>1304</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="32">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>1305</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="32">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>1306</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="32">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>1307</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="32">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>1308</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="32">
-        <v>1</v>
-      </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1425,92 +1476,92 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.5">

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemDecorate.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemDecorate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4925498-E6F0-4D2A-964E-EC9C851FF5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891AFA0-52E9-4D9D-9E13-C4685E9F69A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
         <v>52</v>
       </c>
       <c r="H6" s="28">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemDecorate.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemDecorate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891AFA0-52E9-4D9D-9E13-C4685E9F69A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C498FC-989A-4842-95CD-21A65E475271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>zh_cn_itemDes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,10 +304,6 @@
   </si>
   <si>
     <t>Accessorie_00008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_cn_des</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1046,29 +1046,29 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="12" customWidth="1"/>
-    <col min="14" max="17" width="12.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="12" customWidth="1"/>
+    <col min="14" max="17" width="12.125" style="9" customWidth="1"/>
     <col min="18" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1094,9 +1094,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
@@ -1108,45 +1108,45 @@
         <v>6</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -1172,151 +1172,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>1301</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="F5" s="28">
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>1302</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="28">
         <v>5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>1303</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>1304</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1305</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>1306</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
@@ -1324,47 +1324,47 @@
       <c r="G10" s="15"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>1307</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="28">
         <v>1</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>1308</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="28">
         <v>1</v>
@@ -1461,126 +1461,126 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
     </row>
   </sheetData>
